--- a/Data/GOR_DATA_02_11_2020.xlsx
+++ b/Data/GOR_DATA_02_11_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\susakort\supervision\Patrick Ståhl\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\susakort\GitHub\GoR-Food-webs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BA932A-4855-4D45-8D15-2A7AAE7202DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D434309-DCAF-430F-9439-573916D457A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP_ID" sheetId="8" r:id="rId1"/>
@@ -1285,14 +1285,14 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1787,40 +1787,40 @@
       <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -4590,36 +4590,36 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -6709,40 +6709,40 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.21875" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7499,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -9589,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -9697,41 +9697,41 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.21875" customWidth="1"/>
+    <col min="27" max="27" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -11058,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -11723,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -12103,7 +12103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -12686,42 +12686,42 @@
       <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12914,7 +12914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -13992,7 +13992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -14972,7 +14972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -15868,12 +15868,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>102</v>
       </c>
@@ -15881,7 +15881,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15889,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -15905,7 +15905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -15913,7 +15913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -15937,7 +15937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -15993,7 +15993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -16001,7 +16001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -16017,7 +16017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -16025,7 +16025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -16049,7 +16049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -16057,7 +16057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
@@ -16089,7 +16089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>18</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -16105,7 +16105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>18</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>18</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
@@ -16145,7 +16145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>8</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>6</v>
       </c>
@@ -16241,7 +16241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>23</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>23</v>
       </c>
@@ -16257,7 +16257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>23</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>23</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>23</v>
       </c>
@@ -16281,7 +16281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>23</v>
       </c>
@@ -16289,7 +16289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>23</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>23</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>23</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>23</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>23</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
@@ -16337,7 +16337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>23</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>23</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
@@ -16361,7 +16361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>23</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>23</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>23</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -16417,7 +16417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -16425,7 +16425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -16457,7 +16457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>32</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>32</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>32</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>32</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>32</v>
       </c>
@@ -16521,7 +16521,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>3</v>
       </c>
@@ -16529,7 +16529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>3</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>4</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>4</v>
       </c>
@@ -16553,7 +16553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>7</v>
       </c>
@@ -16569,7 +16569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>7</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>7</v>
       </c>
@@ -16585,7 +16585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>7</v>
       </c>
@@ -16593,7 +16593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>9</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>9</v>
       </c>
@@ -16609,7 +16609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>9</v>
       </c>
@@ -16617,7 +16617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>9</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>9</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>9</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>30</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>30</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>30</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>31</v>
       </c>
@@ -16673,7 +16673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>16</v>
       </c>
@@ -16681,7 +16681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>33</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>33</v>
       </c>
@@ -16697,7 +16697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>33</v>
       </c>
@@ -16705,7 +16705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>33</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>33</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>33</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>33</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>33</v>
       </c>
@@ -16745,7 +16745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>33</v>
       </c>
@@ -16753,7 +16753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>33</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>33</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>33</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>28</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>28</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>28</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>28</v>
       </c>
@@ -16809,7 +16809,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>28</v>
       </c>
@@ -16817,7 +16817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>28</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>21</v>
       </c>
@@ -16833,7 +16833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>21</v>
       </c>
@@ -16841,7 +16841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>21</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>21</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>21</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>21</v>
       </c>
@@ -16873,7 +16873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>21</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>21</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>20</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>12</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>12</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>12</v>
       </c>
@@ -16921,7 +16921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>12</v>
       </c>
@@ -16929,7 +16929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>12</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>12</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>12</v>
       </c>
@@ -16953,7 +16953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>12</v>
       </c>
@@ -16961,7 +16961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>12</v>
       </c>
@@ -16969,7 +16969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>12</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>12</v>
       </c>
@@ -16985,7 +16985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>12</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>12</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>12</v>
       </c>
@@ -17009,7 +17009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>12</v>
       </c>
@@ -17017,7 +17017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>12</v>
       </c>
@@ -17025,7 +17025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>29</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>29</v>
       </c>
@@ -17041,7 +17041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>29</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>29</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>29</v>
       </c>
@@ -17065,7 +17065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>29</v>
       </c>
@@ -17073,7 +17073,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>29</v>
       </c>
@@ -17081,7 +17081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>29</v>
       </c>
@@ -17089,7 +17089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>29</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>29</v>
       </c>
@@ -17105,7 +17105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>29</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>29</v>
       </c>
@@ -17121,7 +17121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>29</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>29</v>
       </c>
@@ -17137,7 +17137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>29</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>29</v>
       </c>
@@ -17153,7 +17153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>29</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>10</v>
       </c>
@@ -17169,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>10</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>10</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>10</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>10</v>
       </c>
@@ -17201,7 +17201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>10</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>10</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>13</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>13</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>13</v>
       </c>
@@ -17241,7 +17241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>13</v>
       </c>
@@ -17249,7 +17249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>13</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>13</v>
       </c>
@@ -17265,7 +17265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>13</v>
       </c>
@@ -17273,7 +17273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>17</v>
       </c>
@@ -17281,7 +17281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>24</v>
       </c>
@@ -17289,7 +17289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>24</v>
       </c>
@@ -17297,7 +17297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>24</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>24</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>24</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>27</v>
       </c>
@@ -17329,7 +17329,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>27</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>27</v>
       </c>
@@ -17345,7 +17345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>27</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>27</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>27</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>27</v>
       </c>
@@ -17377,7 +17377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>27</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>27</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>27</v>
       </c>
@@ -17401,7 +17401,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>27</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>27</v>
       </c>
@@ -17417,7 +17417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>25</v>
       </c>
@@ -17425,7 +17425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>25</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>25</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>25</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>25</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>25</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>25</v>
       </c>
@@ -17473,7 +17473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>0</v>
       </c>
@@ -17481,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>0</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>0</v>
       </c>
@@ -17497,7 +17497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>0</v>
       </c>
@@ -17505,7 +17505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>26</v>
       </c>
@@ -17513,7 +17513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>26</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>26</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>26</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>26</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>26</v>
       </c>
@@ -17553,7 +17553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>26</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>26</v>
       </c>
@@ -17569,7 +17569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>26</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>26</v>
       </c>
@@ -17585,7 +17585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>26</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>26</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
     </row>
@@ -17618,46 +17618,46 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.81640625" customWidth="1"/>
+    <col min="7" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5546875" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" customWidth="1"/>
+    <col min="16" max="16" width="8.54296875" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" customWidth="1"/>
+    <col min="19" max="19" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.81640625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" customWidth="1"/>
-    <col min="25" max="25" width="12.21875" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" customWidth="1"/>
-    <col min="27" max="27" width="9.21875" customWidth="1"/>
-    <col min="28" max="28" width="9.77734375" customWidth="1"/>
-    <col min="29" max="29" width="12.77734375" customWidth="1"/>
-    <col min="30" max="30" width="12.5546875" customWidth="1"/>
-    <col min="31" max="31" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.77734375" customWidth="1"/>
-    <col min="34" max="34" width="11.44140625" customWidth="1"/>
-    <col min="35" max="35" width="12.21875" customWidth="1"/>
+    <col min="23" max="23" width="9.54296875" customWidth="1"/>
+    <col min="24" max="24" width="12.54296875" customWidth="1"/>
+    <col min="25" max="25" width="12.1796875" customWidth="1"/>
+    <col min="26" max="26" width="9.453125" customWidth="1"/>
+    <col min="27" max="27" width="9.1796875" customWidth="1"/>
+    <col min="28" max="28" width="9.81640625" customWidth="1"/>
+    <col min="29" max="29" width="12.81640625" customWidth="1"/>
+    <col min="30" max="30" width="12.54296875" customWidth="1"/>
+    <col min="31" max="31" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.81640625" customWidth="1"/>
+    <col min="34" max="34" width="11.453125" customWidth="1"/>
+    <col min="35" max="35" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -17761,7 +17761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17975,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18082,7 +18082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18296,7 +18296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -18403,7 +18403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -18724,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -18831,7 +18831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -19259,7 +19259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -19366,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -19687,7 +19687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -19901,7 +19901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -20115,7 +20115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -20222,7 +20222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -20436,7 +20436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -20650,7 +20650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -20864,7 +20864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -20971,7 +20971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -21078,7 +21078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -21292,7 +21292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -21412,13 +21412,13 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1981</v>
       </c>
@@ -21449,7 +21449,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -21475,7 +21475,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -21501,7 +21501,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -21527,7 +21527,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -21553,7 +21553,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -21631,7 +21631,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -21657,7 +21657,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -21683,7 +21683,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -21709,7 +21709,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -21735,7 +21735,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -21787,7 +21787,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -21813,7 +21813,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -21865,7 +21865,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -21891,7 +21891,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -21917,7 +21917,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -22047,7 +22047,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -22073,7 +22073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -22125,7 +22125,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -22151,7 +22151,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -22177,7 +22177,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -22229,7 +22229,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -22255,7 +22255,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -22307,7 +22307,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -22342,17 +22342,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1981</v>
       </c>
@@ -22375,7 +22375,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -22401,7 +22401,7 @@
         <v>1.86452910495494</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -22427,7 +22427,7 @@
         <v>27.135825820000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -22453,7 +22453,7 @@
         <v>0.28138350000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -22479,7 +22479,7 @@
         <v>0.53555892000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>0.119696097380617</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -22531,7 +22531,7 @@
         <v>2.99210536343685</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -22557,7 +22557,7 @@
         <v>0.14809545140081001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>105</v>
       </c>
@@ -22583,7 +22583,7 @@
         <v>0.29165456313499999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -22609,7 +22609,7 @@
         <v>2.71803995658169</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -22635,7 +22635,7 @@
         <v>2.0824980333920502</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -22661,7 +22661,7 @@
         <v>9.2305162857142797E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -22687,7 +22687,7 @@
         <v>4.0739528867258E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -22713,7 +22713,7 @@
         <v>5.1569893286785101E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -22739,7 +22739,7 @@
         <v>1.15654349036155E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -22765,7 +22765,7 @@
         <v>6.8737254371075807E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -22791,7 +22791,7 @@
         <v>9.0154025048116398E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>0.56791460160999996</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -22843,7 +22843,7 @@
         <v>2.2883297899999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -22869,7 +22869,7 @@
         <v>2.2499249999999998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -22895,7 +22895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>6.2014206979999997</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>112</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>21.849041742968002</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -23051,7 +23051,7 @@
         <v>9.4560836441445306E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -23077,7 +23077,7 @@
         <v>2.9909285359887499E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -23103,7 +23103,7 @@
         <v>7.157E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>117</v>
       </c>
@@ -23129,7 +23129,7 @@
         <v>1.3650000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>4.8527999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>3.4186999999999998E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -23207,7 +23207,7 @@
         <v>0.68607556189999996</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -23233,7 +23233,7 @@
         <v>6.1827500000000005E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -23272,14 +23272,14 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>1981</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -23328,7 +23328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -23380,7 +23380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -23406,7 +23406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -23510,7 +23510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -23536,7 +23536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -23588,7 +23588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -23614,7 +23614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -23666,7 +23666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -23692,7 +23692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -23744,7 +23744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -23770,7 +23770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -23848,7 +23848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -23874,7 +23874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -23900,7 +23900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -23926,7 +23926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -23952,7 +23952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -23978,7 +23978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -24004,7 +24004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -24030,7 +24030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -24056,7 +24056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -24082,7 +24082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -24108,7 +24108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -24134,7 +24134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -24160,7 +24160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -24199,15 +24199,15 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -24224,7 +24224,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -24239,7 +24239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -24271,7 +24271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -24286,7 +24286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -24303,7 +24303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>49</v>
       </c>
@@ -24318,7 +24318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -24348,7 +24348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -24363,7 +24363,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -24380,7 +24380,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>32</v>
       </c>
@@ -24412,7 +24412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -24427,7 +24427,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -24442,7 +24442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>7</v>
       </c>
@@ -24457,7 +24457,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -24504,7 +24504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
@@ -24521,7 +24521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -24553,7 +24553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -24570,7 +24570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -24602,7 +24602,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -24619,7 +24619,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>10</v>
       </c>
@@ -24651,7 +24651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -24666,7 +24666,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -24681,7 +24681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>24</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -24713,7 +24713,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -24728,7 +24728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>0</v>
       </c>
@@ -24743,7 +24743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>26</v>
       </c>
@@ -24775,40 +24775,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -24885,7 +24885,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -25045,7 +25045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -25205,7 +25205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -25285,7 +25285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -25525,7 +25525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -25605,7 +25605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -25765,7 +25765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -25845,7 +25845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -25925,7 +25925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -26165,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -26245,7 +26245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -26325,7 +26325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -26405,7 +26405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -26485,7 +26485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -26565,7 +26565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -26645,7 +26645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -26805,7 +26805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -26898,12 +26898,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -27223,7 +27223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27303,7 +27303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27383,7 +27383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -27463,7 +27463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -27703,7 +27703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -27943,7 +27943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -28023,7 +28023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -28103,7 +28103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -28263,7 +28263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>112</v>
       </c>
@@ -28343,7 +28343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -28423,7 +28423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -28583,7 +28583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>116</v>
       </c>
@@ -28663,7 +28663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>117</v>
       </c>
@@ -28743,7 +28743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>118</v>
       </c>
@@ -28823,7 +28823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -28916,36 +28916,36 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -29025,7 +29025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -29108,7 +29108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -29191,7 +29191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -29274,7 +29274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -29440,7 +29440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -29772,7 +29772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -29855,7 +29855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -29938,7 +29938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -30021,7 +30021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -30104,7 +30104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -30187,7 +30187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -30270,7 +30270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -30353,7 +30353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -30436,7 +30436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -30519,7 +30519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -30602,7 +30602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -30685,7 +30685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -30768,7 +30768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -30851,7 +30851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -31017,7 +31017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -31100,7 +31100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>

--- a/Data/GOR_DATA_02_11_2020.xlsx
+++ b/Data/GOR_DATA_02_11_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalData\susakort\GitHub\GoR-Food-webs\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D434309-DCAF-430F-9439-573916D457A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193EBCED-017F-40D3-BC83-EE86FBB23365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22343,7 +22343,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
